--- a/数据整理/stocks/A股/深证主板/000988-华工科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/000988-华工科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010330</t>
+          <t>001955</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东吴兴享成长混合A</t>
+          <t>中欧养老产业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.10</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7213</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001883</t>
+          <t>010330</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧新动力混合(LOF) -E</t>
+          <t>东吴兴享成长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.56</t>
+          <t>34.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>36.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5368</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>166009</t>
+          <t>001883</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧新动力混合(LOF) -A</t>
+          <t>中欧新动力混合(LOF) -E</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>91.56</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.03</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5345</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011462</t>
+          <t>166009</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东吴兴享成长混合C</t>
+          <t>中欧新动力混合(LOF) -A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>36.10</t>
+          <t>17.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5345</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>512330</t>
+          <t>005421</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方中证500信息技术指数ETF</t>
+          <t>中欧嘉泽灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>99.47</t>
+          <t>14.22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4920</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001955</t>
+          <t>512330</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧养老产业混合</t>
+          <t>南方中证500信息技术指数ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.53</t>
+          <t>10.51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.85</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2480</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004236</t>
+          <t>160642</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧新动力混合(LOF) -C</t>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.56</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1856</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004833</t>
+          <t>004236</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>先锋聚利灵活配置混合A</t>
+          <t>中欧新动力混合(LOF) -C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004834</t>
+          <t>004833</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>先锋聚利灵活配置混合C</t>
+          <t>先锋聚利灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>91.97</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>6.88</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>5</v>
       </c>
     </row>
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005421</t>
+          <t>004834</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中欧嘉泽灵活配置混合</t>
+          <t>先锋聚利灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>160642</t>
+          <t>011462</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鹏华增瑞灵活配置混合(LOF)</t>
+          <t>东吴兴享成长混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>36.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,15 +946,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -846,26 +976,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001883</t>
+          <t>010429</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧新动力混合(LOF) -E</t>
+          <t>中欧睿见混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>84.76</t>
+          <t>46.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2606</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -884,15 +1024,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>84.76</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.46</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7958</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004236</t>
+          <t>001955</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧新动力混合(LOF) -C</t>
+          <t>中欧养老产业混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>84.76</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5215</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010429</t>
+          <t>004236</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧睿见混合</t>
+          <t>中欧新动力混合(LOF) -C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>78.99</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.05</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001955</t>
+          <t>001883</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧养老产业混合</t>
+          <t>中欧新动力混合(LOF) -E</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.77</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000988-华工科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/000988-华工科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,666 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3918</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0803</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0331</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9411</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8379</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5172</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2295</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002236</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成中证360互联网+大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003359</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成中证360互联网+大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011084</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011085</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000988-华工科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/000988-华工科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1826,4 +1827,1498 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7295</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3421</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2824</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>42.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2445</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0419</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>52.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6709</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5126</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4030</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>55.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3778</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3113</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2825</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>62.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2373</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>910024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2273</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2150</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2132</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1304</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011703</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中金鑫瑞优选一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>97.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010862</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000988-华工科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/000988-华工科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3300,7 +3301,6 @@
           <t>东方红启阳三年持有期混合B</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
           <t>79.89</t>
@@ -3316,6 +3316,106 @@
       </c>
       <c r="H39" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.37</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000988-华工科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/000988-华工科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3329,7 +3330,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3340,17 +3341,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3360,14 +3381,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.48</v>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2984</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3376,14 +3419,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.54</v>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0056</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3392,14 +3457,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.71</v>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9175</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3408,13 +3495,2429 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>51.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5958</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4889</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3184</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2411</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2340</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1558</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011703</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中金鑫瑞优选一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>37.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010773</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>景顺长城泰阳回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010951</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中金成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010774</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>景顺长城泰阳回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010952</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中金成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011025</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011026</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>64</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.37</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000988-华工科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/000988-华工科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5816,7 +5817,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5827,17 +5828,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5847,14 +5868,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>64</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.53</v>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3426</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -5863,14 +5906,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.48</v>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1762</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -5879,14 +5944,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.54</v>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -5895,14 +5982,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.71</v>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -5911,13 +6020,585 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011731</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011732</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>64</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.37</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000988-华工科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/000988-华工科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6481,7 +6482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6492,17 +6493,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6512,14 +6533,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.09</v>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8314</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -6528,14 +6571,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>64</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.53</v>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>55.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3476</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -6544,14 +6609,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>38</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.48</v>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>55.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3473</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -6560,14 +6647,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.54</v>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -6576,14 +6685,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.71</v>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -6592,13 +6723,525 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014130</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>64</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>11</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.37</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000988-华工科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/000988-华工科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>2.15</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>1.09</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>7.53</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D5" t="n">
-        <v>11.48</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>6.54</v>
+        <v>11.48</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>4.71</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>11</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.37</v>
       </c>
     </row>
@@ -600,6 +617,400 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4202</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014786</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>惠升品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012321</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东财中证云计算指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012322</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东财中证云计算指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003697</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏睿磐泰盛混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015111</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014787</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>惠升品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1225,7 +1636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1889,7 +2300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4375,7 +4786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5868,7 +6279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6530,7 +6941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6776,7 +7187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000988-华工科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/000988-华工科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.83</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>2.15</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>1.09</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>7.53</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D6" t="n">
-        <v>11.48</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D7" t="n">
-        <v>6.54</v>
+        <v>11.48</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>4.71</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>11</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.37</v>
       </c>
     </row>
@@ -616,7 +633,727 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7213</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>36.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5368</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5345</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5345</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4920</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2480</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1856</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>36.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3814</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159667</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证机床ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159663</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证机床ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159743</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时中证湖北新旧动能转换ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1010,7 +1747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1636,7 +2373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2300,7 +3037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4786,7 +5523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6279,7 +7016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6941,7 +7678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7185,478 +7922,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001955</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧养老产业混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.53</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.85</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7213</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010330</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东吴兴享成长混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>34.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>36.10</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5368</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001883</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧新动力混合(LOF) -E</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.64</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.56</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5345</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>166009</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧新动力混合(LOF) -A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>17.64</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.56</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5345</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005421</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧嘉泽灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>14.22</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.31</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4920</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>512330</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方中证500信息技术指数ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>10.51</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>99.47</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2480</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160642</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华增瑞灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1856</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004236</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧新动力混合(LOF) -C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.56</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1103</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004833</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>先锋聚利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004834</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>先锋聚利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011462</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>东吴兴享成长混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>36.10</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>